--- a/service-system/target/classes/static/车辙-4车道.xlsx
+++ b/service-system/target/classes/static/车辙-4车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23142BD-35F8-41C9-942B-BA158CF559AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75591E0-7C1D-434F-A21A-159F2B102EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="右幅-混凝土路面" sheetId="12" state="hidden" r:id="rId1"/>
@@ -391,21 +391,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,14 +412,20 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -444,6 +435,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -775,72 +775,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -848,7 +848,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -856,7 +856,7 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -864,7 +864,7 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -875,25 +875,25 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="17" t="s">
         <v>10</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="25"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1343,12 +1343,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="28"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1413,11 +1413,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="29" t="s">
+      <c r="N30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="30"/>
-      <c r="P30" s="31"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1491,6 +1491,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -1507,18 +1519,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -1537,7 +1537,7 @@
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L26" sqref="L26:O26"/>
     </sheetView>
   </sheetViews>
@@ -1554,70 +1554,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="35" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -1626,7 +1626,7 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -1635,7 +1635,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -1647,21 +1647,21 @@
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="25"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="25"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="17" t="s">
         <v>24</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="E6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="J6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2068,11 +2068,11 @@
       <c r="K26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
       <c r="O26" s="10" t="s">
         <v>16</v>
       </c>
@@ -2089,13 +2089,13 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2156,12 +2156,12 @@
       <c r="K30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="31"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2232,16 +2232,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:K6"/>
@@ -2250,14 +2248,16 @@
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -2292,70 +2292,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="35" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2364,7 +2364,7 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -2373,7 +2373,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -2385,22 +2385,22 @@
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="35" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="35" t="s">
         <v>33</v>
       </c>
       <c r="M5" s="18"/>
@@ -2409,7 +2409,7 @@
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="E6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="J6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2806,11 +2806,11 @@
       <c r="K26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
       <c r="O26" s="10" t="s">
         <v>16</v>
       </c>
@@ -2827,13 +2827,13 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2894,12 +2894,12 @@
       <c r="K30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="31"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2970,16 +2970,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:K6"/>
@@ -2988,14 +2986,16 @@
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -3030,70 +3030,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="35" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -3102,7 +3102,7 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -3111,7 +3111,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -3123,21 +3123,21 @@
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="25"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="25"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="17" t="s">
         <v>24</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3160,7 +3160,7 @@
       <c r="E6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="J6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3544,11 +3544,11 @@
       <c r="K26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
       <c r="O26" s="10" t="s">
         <v>16</v>
       </c>
@@ -3565,13 +3565,13 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3632,12 +3632,12 @@
       <c r="K30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="31"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3708,6 +3708,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
     <mergeCell ref="L32:O32"/>
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="A4:A6"/>
@@ -3724,16 +3734,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -3769,72 +3769,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -3869,25 +3869,25 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="17" t="s">
         <v>24</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="25"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4337,12 +4337,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="28"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4407,11 +4407,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="29" t="s">
+      <c r="N30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="30"/>
-      <c r="P30" s="31"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4485,6 +4485,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -4501,18 +4513,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -4549,72 +4549,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -4649,25 +4649,25 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="17" t="s">
         <v>24</v>
       </c>
@@ -4676,7 +4676,7 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4686,7 +4686,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="25"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5117,12 +5117,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="28"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5187,11 +5187,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="29" t="s">
+      <c r="N30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="30"/>
-      <c r="P30" s="31"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5265,6 +5265,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -5281,18 +5293,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -5329,72 +5329,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -5429,25 +5429,25 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="17" t="s">
         <v>10</v>
       </c>
@@ -5456,7 +5456,7 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5466,7 +5466,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5476,7 +5476,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5486,7 +5486,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="25"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5897,12 +5897,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="28"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5967,11 +5967,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="29" t="s">
+      <c r="N30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="30"/>
-      <c r="P30" s="31"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6045,6 +6045,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -6061,18 +6073,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -6109,72 +6109,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -6209,25 +6209,25 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="17" t="s">
         <v>24</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6246,7 +6246,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6256,7 +6256,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6266,7 +6266,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="25"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6677,12 +6677,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="28"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6747,11 +6747,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="29" t="s">
+      <c r="N30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="30"/>
-      <c r="P30" s="31"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6825,6 +6825,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -6841,18 +6853,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -6889,72 +6889,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="17" t="s">
@@ -6989,25 +6989,25 @@
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="25"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="17" t="s">
         <v>10</v>
       </c>
@@ -7016,7 +7016,7 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7026,7 +7026,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7036,7 +7036,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="25"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7457,12 +7457,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="28"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7527,11 +7527,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="29" t="s">
+      <c r="N30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="30"/>
-      <c r="P30" s="31"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7605,6 +7605,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -7621,18 +7633,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -7651,7 +7651,7 @@
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L26" sqref="L26:O26"/>
     </sheetView>
   </sheetViews>
@@ -7668,70 +7668,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="35" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -7740,7 +7740,7 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -7749,7 +7749,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -7761,22 +7761,22 @@
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="35" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="35" t="s">
         <v>33</v>
       </c>
       <c r="M5" s="18"/>
@@ -7785,7 +7785,7 @@
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7798,7 +7798,7 @@
       <c r="E6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7811,7 +7811,7 @@
       <c r="J6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8182,11 +8182,11 @@
       <c r="K26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
       <c r="O26" s="10" t="s">
         <v>16</v>
       </c>
@@ -8203,13 +8203,13 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8270,12 +8270,12 @@
       <c r="K30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="31"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8346,16 +8346,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:K6"/>
@@ -8364,14 +8362,16 @@
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -8406,70 +8406,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="35" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -8478,7 +8478,7 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -8487,7 +8487,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -8499,21 +8499,21 @@
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="25"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="25"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="17" t="s">
         <v>24</v>
       </c>
@@ -8523,7 +8523,7 @@
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8536,7 +8536,7 @@
       <c r="E6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8549,7 +8549,7 @@
       <c r="J6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8920,11 +8920,11 @@
       <c r="K26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
       <c r="O26" s="10" t="s">
         <v>16</v>
       </c>
@@ -8941,13 +8941,13 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9008,12 +9008,12 @@
       <c r="K30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="31"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9084,16 +9084,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:K6"/>
@@ -9102,14 +9100,16 @@
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -9144,70 +9144,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="35" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -9216,7 +9216,7 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -9225,7 +9225,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="17" t="s">
@@ -9237,22 +9237,22 @@
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="35" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="35" t="s">
         <v>33</v>
       </c>
       <c r="M5" s="18"/>
@@ -9261,7 +9261,7 @@
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -9274,7 +9274,7 @@
       <c r="E6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
@@ -9287,7 +9287,7 @@
       <c r="J6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="4" t="s">
         <v>11</v>
       </c>
@@ -9658,11 +9658,11 @@
       <c r="K26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
       <c r="O26" s="10" t="s">
         <v>16</v>
       </c>
@@ -9679,13 +9679,13 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9746,12 +9746,12 @@
       <c r="K30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="31"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9822,16 +9822,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:K6"/>
@@ -9840,14 +9838,16 @@
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.9055118110236221" right="0.78740157480314965" top="0.74803149606299213" bottom="0.74803149606299213" header="0.47244094488188981" footer="0.47244094488188981"/>
